--- a/public/data/3606_kvk4.xlsx
+++ b/public/data/3606_kvk4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1aeeb6ae1a71a1f8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C72AC6C7-5FAE-4851-8FDE-9EDFEEE18568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB424A94-C132-42FD-A3AA-71CC36B964C7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C72AC6C7-5FAE-4851-8FDE-9EDFEEE18568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FB1C483-DB86-43AE-B827-498CE6C1A4DD}"/>
   <bookViews>
-    <workbookView xWindow="26010" yWindow="3045" windowWidth="29700" windowHeight="17430" xr2:uid="{80853A9A-7C62-4533-80BE-2837C6D7FE84}"/>
+    <workbookView xWindow="20760" yWindow="3285" windowWidth="29700" windowHeight="17430" xr2:uid="{80853A9A-7C62-4533-80BE-2837C6D7FE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2331,6 +2331,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2653,23 +2657,23 @@
   <dimension ref="A1:G349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="6" width="12.5703125"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>700</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2688,11 +2692,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="5">
         <v>107889739</v>
@@ -2711,11 +2715,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>61899757</v>
@@ -2734,11 +2738,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>73541187</v>
@@ -2757,11 +2761,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>88003745</v>
@@ -2780,11 +2784,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>72053451</v>
@@ -2803,11 +2807,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>78721869</v>
@@ -2826,11 +2830,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="5">
         <v>90280783</v>
@@ -2849,11 +2853,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>35929213</v>
@@ -2872,11 +2876,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="5">
         <v>54212526</v>
@@ -2895,11 +2899,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="5">
         <v>62416791</v>
@@ -2918,11 +2922,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="5">
         <v>63577463</v>
@@ -2941,11 +2945,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="5">
         <v>56124292</v>
@@ -2964,11 +2968,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="5">
         <v>69259677</v>
@@ -2987,11 +2991,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="5">
         <v>56428758</v>
@@ -3010,11 +3014,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="5">
         <v>73297346</v>
@@ -3033,11 +3037,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="5">
         <v>79602090</v>
@@ -3056,11 +3060,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>56841176</v>
@@ -3079,11 +3083,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C19" s="5">
         <v>87728849</v>
@@ -3102,11 +3106,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="5">
         <v>62170037</v>
@@ -3125,11 +3129,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="5">
         <v>64723471</v>
@@ -3148,11 +3152,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="C22" s="5">
         <v>57382113</v>
@@ -3171,11 +3175,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C23" s="5">
         <v>81982284</v>
@@ -3194,11 +3198,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C24" s="5">
         <v>60494481</v>
@@ -3217,11 +3221,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C25" s="5">
         <v>61129302</v>
@@ -3240,11 +3244,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C26" s="5">
         <v>87170259</v>
@@ -3263,11 +3267,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C27" s="5">
         <v>48864610</v>
@@ -3286,11 +3290,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C28" s="5">
         <v>86853804</v>
@@ -3309,11 +3313,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C29" s="5">
         <v>35891709</v>
@@ -3332,11 +3336,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C30" s="5">
         <v>34442564</v>
@@ -3355,11 +3359,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C31" s="5">
         <v>36349246</v>
@@ -3378,11 +3382,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C32" s="5">
         <v>56880451</v>
@@ -3401,11 +3405,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C33" s="5">
         <v>43936377</v>
@@ -3424,11 +3428,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C34" s="5">
         <v>35498125</v>
@@ -3447,11 +3451,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C35" s="5">
         <v>60148137</v>
@@ -3470,11 +3474,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C36" s="5">
         <v>57379870</v>
@@ -3493,11 +3497,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="C37" s="5">
         <v>51033929</v>
@@ -3516,11 +3520,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="C38" s="5">
         <v>60400401</v>
@@ -3539,11 +3543,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C39" s="5">
         <v>60747575</v>
@@ -3562,11 +3566,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C40" s="5">
         <v>66467290</v>
@@ -3585,11 +3589,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C41" s="5">
         <v>85052561</v>
@@ -3608,11 +3612,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C42" s="5">
         <v>32991033</v>
@@ -3631,11 +3635,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="C43" s="5">
         <v>47221177</v>
@@ -3654,11 +3658,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C44" s="5">
         <v>78399993</v>
@@ -3677,11 +3681,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C45" s="5">
         <v>52197134</v>
@@ -3700,11 +3704,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="C46" s="5">
         <v>41437091</v>
@@ -3723,11 +3727,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C47" s="5">
         <v>53343086</v>
@@ -3746,11 +3750,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C48" s="5">
         <v>57155562</v>
@@ -3769,11 +3773,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="C49" s="5">
         <v>57632677</v>
@@ -3792,11 +3796,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="C50" s="5">
         <v>41255451</v>
@@ -3815,11 +3819,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C51" s="5">
         <v>89139024</v>
@@ -3838,11 +3842,11 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="C52" s="5">
         <v>54449472</v>
@@ -3861,11 +3865,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C53" s="5">
         <v>55879384</v>
@@ -3884,11 +3888,11 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C54" s="5">
         <v>39032376</v>
@@ -3907,11 +3911,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="C55" s="5">
         <v>64132609</v>
@@ -3930,11 +3934,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="C56" s="5">
         <v>36685024</v>
@@ -3953,11 +3957,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="C57" s="5">
         <v>45394000</v>
@@ -3976,11 +3980,11 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="C58" s="5">
         <v>61207176</v>
@@ -3999,11 +4003,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C59" s="5">
         <v>68123210</v>
@@ -4022,11 +4026,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="C60" s="5">
         <v>32738811</v>
@@ -4045,11 +4049,11 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="C61" s="5">
         <v>44778774</v>
@@ -4068,11 +4072,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C62" s="5">
         <v>43246467</v>
@@ -4091,11 +4095,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C63" s="5">
         <v>40924825</v>
@@ -4114,11 +4118,11 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C64" s="5">
         <v>39106931</v>
@@ -4137,11 +4141,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C65" s="5">
         <v>42565810</v>
@@ -4160,11 +4164,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C66" s="5">
         <v>60277478</v>
@@ -4183,11 +4187,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="C67" s="5">
         <v>62219133</v>
@@ -4206,11 +4210,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C68" s="5">
         <v>48171064</v>
@@ -4229,11 +4233,11 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="C69" s="5">
         <v>32393685</v>
@@ -4252,11 +4256,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="C70" s="5">
         <v>71960430</v>
@@ -4275,11 +4279,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="C71" s="5">
         <v>28183564</v>
@@ -4298,11 +4302,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C72" s="5">
         <v>32860155</v>
@@ -4321,11 +4325,11 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="C73" s="5">
         <v>40090970</v>
@@ -4344,11 +4348,11 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="C74" s="5">
         <v>38203117</v>
@@ -4367,11 +4371,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="C75" s="5">
         <v>52304141</v>
@@ -4390,11 +4394,11 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="C76" s="5">
         <v>57558976</v>
@@ -4413,11 +4417,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="C77" s="5">
         <v>45373414</v>
@@ -4436,11 +4440,11 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="C78" s="5">
         <v>45459525</v>
@@ -4459,11 +4463,11 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="C79" s="5">
         <v>39209135</v>
@@ -4482,11 +4486,11 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="C80" s="5">
         <v>49601804</v>
@@ -4505,11 +4509,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="C81" s="5">
         <v>85299448</v>
@@ -4528,11 +4532,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="C82" s="5">
         <v>54859754</v>
@@ -4551,11 +4555,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="C83" s="5">
         <v>41461597</v>
@@ -4574,11 +4578,11 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="C84" s="5">
         <v>66147318</v>
@@ -4597,11 +4601,11 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="C85" s="5">
         <v>37972090</v>
@@ -4620,11 +4624,11 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="C86" s="5">
         <v>62742383</v>
@@ -4643,11 +4647,11 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C87" s="5">
         <v>46252562</v>
@@ -4666,11 +4670,11 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C88" s="5">
         <v>49580796</v>
@@ -4689,11 +4693,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="C89" s="5">
         <v>58621736</v>
@@ -4712,11 +4716,11 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="C90" s="5">
         <v>41646109</v>
@@ -4735,11 +4739,11 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="C91" s="5">
         <v>43976882</v>
@@ -4758,11 +4762,11 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="C92" s="5">
         <v>31715511</v>
@@ -4781,11 +4785,11 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="C93" s="5">
         <v>37894458</v>
@@ -4804,11 +4808,11 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="C94" s="5">
         <v>37481106</v>
@@ -4827,11 +4831,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="C95" s="5">
         <v>41393845</v>
@@ -4850,11 +4854,11 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="C96" s="5">
         <v>49287834</v>
@@ -4873,11 +4877,11 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="C97" s="5">
         <v>38815735</v>
@@ -4896,11 +4900,11 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="C98" s="5">
         <v>55017462</v>
@@ -4919,11 +4923,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="C99" s="5">
         <v>36385206</v>
@@ -4942,11 +4946,11 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="C100" s="5">
         <v>29710332</v>
@@ -4965,11 +4969,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="C101" s="5">
         <v>35253744</v>
@@ -4988,11 +4992,11 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="C102" s="5">
         <v>37867503</v>
@@ -5011,11 +5015,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C103" s="5">
         <v>31883914</v>
@@ -5034,11 +5038,11 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="C104" s="5">
         <v>38462297</v>
@@ -5057,11 +5061,11 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="C105" s="5">
         <v>40988116</v>
@@ -5080,11 +5084,11 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="C106" s="5">
         <v>28454569</v>
@@ -5103,11 +5107,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="C107" s="5">
         <v>39081990</v>
@@ -5126,11 +5130,11 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="C108" s="5">
         <v>42227881</v>
@@ -5149,11 +5153,11 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="C109" s="5">
         <v>21611772</v>
@@ -5172,11 +5176,11 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="C110" s="5">
         <v>35695199</v>
@@ -5195,11 +5199,11 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="C111" s="5">
         <v>39151651</v>
@@ -5218,11 +5222,11 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="C112" s="5">
         <v>28854332</v>
@@ -5241,11 +5245,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="C113" s="5">
         <v>28763733</v>
@@ -5264,11 +5268,11 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="C114" s="5">
         <v>45007312</v>
@@ -5287,11 +5291,11 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="C115" s="5">
         <v>42924946</v>
@@ -5310,11 +5314,11 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="C116" s="5">
         <v>23970681</v>
@@ -5333,11 +5337,11 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C117" s="5">
         <v>38631335</v>
@@ -5356,11 +5360,11 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C118" s="5">
         <v>61771410</v>
@@ -5379,11 +5383,11 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="C119" s="5">
         <v>34237233</v>
@@ -5402,11 +5406,11 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="C120" s="5">
         <v>29205861</v>
@@ -5425,11 +5429,11 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="C121" s="5">
         <v>49167242</v>
@@ -5448,11 +5452,11 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="C122" s="5">
         <v>22233874</v>
@@ -5471,11 +5475,11 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="C123" s="5">
         <v>54665736</v>
@@ -5494,11 +5498,11 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="C124" s="5">
         <v>33544260</v>
@@ -5517,11 +5521,11 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="C125" s="5">
         <v>37624693</v>
@@ -5540,11 +5544,11 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="C126" s="5">
         <v>34794298</v>
@@ -5563,11 +5567,11 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="C127" s="5">
         <v>29618337</v>
@@ -5586,11 +5590,11 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C128" s="5">
         <v>21541627</v>
@@ -5609,11 +5613,11 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="C129" s="5">
         <v>29276063</v>
@@ -5632,11 +5636,11 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="C130" s="5">
         <v>34543703</v>
@@ -5655,11 +5659,11 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="C131" s="5">
         <v>33211705</v>
@@ -5678,11 +5682,11 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="C132" s="5">
         <v>40489477</v>
@@ -5701,11 +5705,11 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="C133" s="5">
         <v>62947543</v>
@@ -5724,11 +5728,11 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="C134" s="5">
         <v>65752013</v>
@@ -5747,11 +5751,11 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C135" s="5">
         <v>45763259</v>
@@ -5770,11 +5774,11 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="C136" s="5">
         <v>21316873</v>
@@ -5793,11 +5797,11 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="C137" s="5">
         <v>60366409</v>
@@ -5816,11 +5820,11 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="C138" s="5">
         <v>22009707</v>
@@ -5839,11 +5843,11 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="C139" s="5">
         <v>49779325</v>
@@ -5862,11 +5866,11 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="C140" s="5">
         <v>23453154</v>
@@ -5885,11 +5889,11 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="C141" s="5">
         <v>20962992</v>
@@ -5908,11 +5912,11 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="C142" s="5">
         <v>33802080</v>
@@ -5931,11 +5935,11 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="C143" s="5">
         <v>72655681</v>
@@ -5954,11 +5958,11 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="C144" s="5">
         <v>26849612</v>
@@ -5977,11 +5981,11 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="C145" s="5">
         <v>21578234</v>
@@ -6000,11 +6004,11 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="C146" s="5">
         <v>25779087</v>
@@ -6023,11 +6027,11 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="C147" s="5">
         <v>22751900</v>
@@ -6046,11 +6050,11 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="C148" s="5">
         <v>19421755</v>
@@ -6069,11 +6073,11 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="C149" s="5">
         <v>25014260</v>
@@ -6092,11 +6096,11 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="C150" s="5">
         <v>41529160</v>
@@ -6115,11 +6119,11 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="C151" s="5">
         <v>45206940</v>
@@ -6138,11 +6142,11 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="C152" s="5">
         <v>35134095</v>
@@ -6161,11 +6165,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="C153" s="5">
         <v>21641753</v>
@@ -6184,11 +6188,11 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="C154" s="5">
         <v>19031128</v>
@@ -6207,11 +6211,11 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="C155" s="5">
         <v>37300014</v>
@@ -6230,11 +6234,11 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="C156" s="5">
         <v>46660614</v>
@@ -6253,11 +6257,11 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="C157" s="5">
         <v>25565224</v>
@@ -6276,11 +6280,11 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="C158" s="5">
         <v>20370467</v>
@@ -6299,11 +6303,11 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="C159" s="5">
         <v>28230342</v>
@@ -6322,11 +6326,11 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="C160" s="5">
         <v>27749714</v>
@@ -6345,11 +6349,11 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="C161" s="5">
         <v>24380165</v>
@@ -6368,11 +6372,11 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="C162" s="5">
         <v>33145184</v>
@@ -6391,11 +6395,11 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="C163" s="5">
         <v>66558003</v>
@@ -6414,11 +6418,11 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="C164" s="5">
         <v>33322506</v>
@@ -6437,11 +6441,11 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="C165" s="5">
         <v>27256805</v>
@@ -6460,11 +6464,11 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="C166" s="5">
         <v>55889054</v>
@@ -6483,11 +6487,11 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="C167" s="5">
         <v>16780701</v>
@@ -6506,11 +6510,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="C168" s="5">
         <v>19426130</v>
@@ -6529,11 +6533,11 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="C169" s="5">
         <v>59084523</v>
@@ -6552,11 +6556,11 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="C170" s="5">
         <v>25768531</v>
@@ -6575,11 +6579,11 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="C171" s="5">
         <v>32418661</v>
@@ -6598,11 +6602,11 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="C172" s="5">
         <v>38317567</v>
@@ -6621,11 +6625,11 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="C173" s="5">
         <v>43632604</v>
@@ -6644,11 +6648,11 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="C174" s="5">
         <v>36884312</v>
@@ -6667,11 +6671,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="C175" s="5">
         <v>41532449</v>
@@ -6690,11 +6694,11 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="C176" s="5">
         <v>21056923</v>
@@ -6713,11 +6717,11 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="C177" s="5">
         <v>18608020</v>
@@ -6736,11 +6740,11 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="C178" s="5">
         <v>38393685</v>
@@ -6759,11 +6763,11 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="C179" s="5">
         <v>24267873</v>
@@ -6782,11 +6786,11 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="C180" s="5">
         <v>33258757</v>
@@ -6805,11 +6809,11 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="C181" s="5">
         <v>17780370</v>
@@ -6828,11 +6832,11 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="C182" s="5">
         <v>26220229</v>
@@ -6851,11 +6855,11 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="C183" s="5">
         <v>23954217</v>
@@ -6874,11 +6878,11 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="C184" s="5">
         <v>24627713</v>
@@ -6897,11 +6901,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="C185" s="5">
         <v>22283162</v>
@@ -6920,11 +6924,11 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="C186" s="5">
         <v>37694756</v>
@@ -6943,11 +6947,11 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="C187" s="5">
         <v>16495956</v>
@@ -6966,11 +6970,11 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="C188" s="5">
         <v>41355533</v>
@@ -6989,11 +6993,11 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="C189" s="5">
         <v>31417995</v>
@@ -7012,11 +7016,11 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="C190" s="5">
         <v>22004212</v>
@@ -7035,11 +7039,11 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="C191" s="5">
         <v>37308899</v>
@@ -7058,11 +7062,11 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="C192" s="5">
         <v>21887806</v>
@@ -7081,11 +7085,11 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="C193" s="5">
         <v>24629512</v>
@@ -7104,11 +7108,11 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="C194" s="5">
         <v>15901254</v>
@@ -7127,11 +7131,11 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="C195" s="5">
         <v>35519515</v>
@@ -7150,11 +7154,11 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="C196" s="5">
         <v>34526432</v>
@@ -7173,11 +7177,11 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="C197" s="5">
         <v>17093778</v>
@@ -7196,11 +7200,11 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="C198" s="5">
         <v>18869391</v>
@@ -7219,11 +7223,11 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="C199" s="5">
         <v>22210859</v>
@@ -7242,11 +7246,11 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="C200" s="5">
         <v>21548297</v>
@@ -7265,11 +7269,11 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="C201" s="5">
         <v>19931305</v>
@@ -7288,11 +7292,11 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="C202" s="5">
         <v>49518713</v>
@@ -7311,11 +7315,11 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="C203" s="5">
         <v>23265187</v>
@@ -7334,11 +7338,11 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="C204" s="5">
         <v>26727417</v>
@@ -7357,11 +7361,11 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="C205" s="5">
         <v>23717278</v>
@@ -7380,11 +7384,11 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="C206" s="5">
         <v>40477554</v>
@@ -7403,11 +7407,11 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="C207" s="5">
         <v>37267251</v>
@@ -7426,11 +7430,11 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="C208" s="5">
         <v>18451264</v>
@@ -7449,11 +7453,11 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="C209" s="5">
         <v>19660937</v>
@@ -7472,11 +7476,11 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="C210" s="5">
         <v>57017010</v>
@@ -7495,11 +7499,11 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="C211" s="5">
         <v>39357488</v>
@@ -7518,11 +7522,11 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="C212" s="5">
         <v>25431852</v>
@@ -7541,11 +7545,11 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="C213" s="5">
         <v>18611181</v>
@@ -7564,11 +7568,11 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="C214" s="5">
         <v>20419643</v>
@@ -7587,11 +7591,11 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="C215" s="5">
         <v>31772976</v>
@@ -7610,11 +7614,11 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="C216" s="5">
         <v>18126837</v>
@@ -7633,11 +7637,11 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="C217" s="5">
         <v>54017644</v>
@@ -7656,11 +7660,11 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="C218" s="5">
         <v>23758389</v>
@@ -7679,11 +7683,11 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="C219" s="5">
         <v>32758297</v>
@@ -7702,11 +7706,11 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="C220" s="5">
         <v>28766897</v>
@@ -7725,11 +7729,11 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>443</v>
       </c>
       <c r="C221" s="5">
         <v>26176621</v>
@@ -7748,11 +7752,11 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="C222" s="5">
         <v>23937150</v>
@@ -7771,11 +7775,11 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="C223" s="5">
         <v>39628235</v>
@@ -7794,11 +7798,11 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="C224" s="5">
         <v>17659599</v>
@@ -7817,11 +7821,11 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="C225" s="5">
         <v>36514806</v>
@@ -7840,11 +7844,11 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="C226" s="5">
         <v>20948449</v>
@@ -7863,11 +7867,11 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="C227" s="5">
         <v>27422354</v>
@@ -7886,11 +7890,11 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="C228" s="5">
         <v>23533057</v>
@@ -7909,11 +7913,11 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="C229" s="5">
         <v>33413966</v>
@@ -7932,11 +7936,11 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="C230" s="5">
         <v>42436212</v>
@@ -7955,11 +7959,11 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="C231" s="5">
         <v>31563612</v>
@@ -7978,11 +7982,11 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="C232" s="5">
         <v>28481199</v>
@@ -8001,11 +8005,11 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B233" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="C233" s="5">
         <v>15506970</v>
@@ -8024,11 +8028,11 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="C234" s="5">
         <v>29362188</v>
@@ -8047,11 +8051,11 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="C235" s="5">
         <v>26288738</v>
@@ -8070,11 +8074,11 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="C236" s="5">
         <v>16521198</v>
@@ -8093,11 +8097,11 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="C237" s="5">
         <v>22253185</v>
@@ -8116,11 +8120,11 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="C238" s="5">
         <v>24510247</v>
@@ -8139,11 +8143,11 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>479</v>
       </c>
       <c r="C239" s="5">
         <v>20200695</v>
@@ -8162,11 +8166,11 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="C240" s="5">
         <v>18522872</v>
@@ -8185,11 +8189,11 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="C241" s="5">
         <v>46953665</v>
@@ -8208,11 +8212,11 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="C242" s="5">
         <v>28655219</v>
@@ -8231,11 +8235,11 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="C243" s="5">
         <v>70906863</v>
@@ -8254,11 +8258,11 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="C244" s="5">
         <v>33308178</v>
@@ -8277,11 +8281,11 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="C245" s="5">
         <v>23826864</v>
@@ -8300,11 +8304,11 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="C246" s="5">
         <v>25399706</v>
@@ -8323,11 +8327,11 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="C247" s="5">
         <v>22567164</v>
@@ -8346,11 +8350,11 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="C248" s="5">
         <v>16375263</v>
@@ -8369,11 +8373,11 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="C249" s="5">
         <v>65069557</v>
@@ -8392,11 +8396,11 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="C250" s="5">
         <v>20530149</v>
@@ -8415,11 +8419,11 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="C251" s="5">
         <v>22187132</v>
@@ -8438,11 +8442,11 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="C252" s="5">
         <v>17563422</v>
@@ -8461,11 +8465,11 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="C253" s="5">
         <v>20999008</v>
@@ -8484,11 +8488,11 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="C254" s="5">
         <v>24039899</v>
@@ -8507,11 +8511,11 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="C255" s="5">
         <v>17683116</v>
@@ -8530,11 +8534,11 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="C256" s="5">
         <v>18009881</v>
@@ -8553,11 +8557,11 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="C257" s="5">
         <v>25416387</v>
@@ -8576,11 +8580,11 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="C258" s="5">
         <v>24864213</v>
@@ -8599,11 +8603,11 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="C259" s="5">
         <v>25440708</v>
@@ -8622,11 +8626,11 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="C260" s="5">
         <v>19541176</v>
@@ -8645,11 +8649,11 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="C261" s="5">
         <v>18764443</v>
@@ -8668,11 +8672,11 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="C262" s="5">
         <v>24648143</v>
@@ -8691,11 +8695,11 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="C263" s="5">
         <v>11360885</v>
@@ -8714,11 +8718,11 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="C264" s="5">
         <v>12523022</v>
@@ -8737,11 +8741,11 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="C265" s="5">
         <v>27058138</v>
@@ -8760,11 +8764,11 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="C266" s="5">
         <v>18792717</v>
@@ -8783,11 +8787,11 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="C267" s="5">
         <v>23010542</v>
@@ -8806,11 +8810,11 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="C268" s="5">
         <v>21058092</v>
@@ -8829,11 +8833,11 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="C269" s="5">
         <v>31276383</v>
@@ -8852,11 +8856,11 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="C270" s="5">
         <v>45512770</v>
@@ -8875,11 +8879,11 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="C271" s="5">
         <v>17611221</v>
@@ -8898,11 +8902,11 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="C272" s="5">
         <v>60579682</v>
@@ -8921,11 +8925,11 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="C273" s="5">
         <v>40659372</v>
@@ -8944,11 +8948,11 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>549</v>
       </c>
       <c r="C274" s="5">
         <v>37899117</v>
@@ -8967,11 +8971,11 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="C275" s="5">
         <v>34756686</v>
@@ -8990,11 +8994,11 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="C276" s="5">
         <v>31865354</v>
@@ -9013,11 +9017,11 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B277" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="C277" s="5">
         <v>30304464</v>
@@ -9036,11 +9040,11 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="C278" s="5">
         <v>31094053</v>
@@ -9059,11 +9063,11 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="C279" s="5">
         <v>30338822</v>
@@ -9082,11 +9086,11 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="C280" s="5">
         <v>28746117</v>
@@ -9105,11 +9109,11 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="4" t="s">
+      <c r="A281" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="C281" s="5">
         <v>27201952</v>
@@ -9128,11 +9132,11 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="4" t="s">
+      <c r="A282" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="C282" s="5">
         <v>26771567</v>
@@ -9151,11 +9155,11 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>567</v>
       </c>
       <c r="C283" s="5">
         <v>24641713</v>
@@ -9174,11 +9178,11 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
+      <c r="A284" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="C284" s="5">
         <v>26941873</v>
@@ -9197,11 +9201,11 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="C285" s="5">
         <v>22924410</v>
@@ -9220,11 +9224,11 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B286" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>573</v>
       </c>
       <c r="C286" s="5">
         <v>21547954</v>
@@ -9243,11 +9247,11 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B287" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>575</v>
       </c>
       <c r="C287" s="5">
         <v>24785070</v>
@@ -9266,11 +9270,11 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>577</v>
       </c>
       <c r="C288" s="5">
         <v>22986740</v>
@@ -9289,11 +9293,11 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B289" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>579</v>
       </c>
       <c r="C289" s="5">
         <v>22826264</v>
@@ -9312,11 +9316,11 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B290" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="C290" s="5">
         <v>25202371</v>
@@ -9335,11 +9339,11 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B291" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="C291" s="5">
         <v>24687165</v>
@@ -9358,11 +9362,11 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="C292" s="5">
         <v>23386637</v>
@@ -9381,11 +9385,11 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B293" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="C293" s="5">
         <v>24967194</v>
@@ -9404,11 +9408,11 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
+      <c r="A294" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>589</v>
       </c>
       <c r="C294" s="5">
         <v>24377116</v>
@@ -9427,11 +9431,11 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B295" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="C295" s="5">
         <v>24602086</v>
@@ -9450,11 +9454,11 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B296" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="C296" s="5">
         <v>24080165</v>
@@ -9473,11 +9477,11 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B297" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="C297" s="5">
         <v>22453121</v>
@@ -9496,11 +9500,11 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B298" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>597</v>
       </c>
       <c r="C298" s="5">
         <v>23856251</v>
@@ -9519,11 +9523,11 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B299" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>599</v>
       </c>
       <c r="C299" s="5">
         <v>24201813</v>
@@ -9542,11 +9546,11 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="C300" s="5">
         <v>22859222</v>
@@ -9565,11 +9569,11 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B301" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="C301" s="5">
         <v>23646493</v>
@@ -9588,11 +9592,11 @@
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B302" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="C302" s="5">
         <v>23276468</v>
@@ -9611,11 +9615,11 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="4" t="s">
+      <c r="A303" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="C303" s="5">
         <v>21821615</v>
@@ -9634,11 +9638,11 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="4" t="s">
+      <c r="A304" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="C304" s="5">
         <v>21367270</v>
@@ -9657,11 +9661,11 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="4" t="s">
+      <c r="A305" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B305" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="C305" s="5">
         <v>22273977</v>
@@ -9680,11 +9684,11 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="C306" s="5">
         <v>22779863</v>
@@ -9703,11 +9707,11 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B307" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="C307" s="5">
         <v>22427018</v>
@@ -9726,11 +9730,11 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="4" t="s">
+      <c r="A308" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B308" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="C308" s="5">
         <v>20862279</v>
@@ -9749,11 +9753,11 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B309" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="C309" s="5">
         <v>20194128</v>
@@ -9772,11 +9776,11 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B310" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="C310" s="5">
         <v>22010097</v>
@@ -9795,11 +9799,11 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="4" t="s">
+      <c r="A311" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B311" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="C311" s="5">
         <v>21582485</v>
@@ -9818,11 +9822,11 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="4" t="s">
+      <c r="A312" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B312" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="C312" s="5">
         <v>18530904</v>
@@ -9841,11 +9845,11 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="4" t="s">
+      <c r="A313" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B313" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="C313" s="5">
         <v>21041995</v>
@@ -9864,11 +9868,11 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
+      <c r="A314" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B314" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="C314" s="5">
         <v>21317167</v>
@@ -9887,11 +9891,11 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
+      <c r="A315" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B315" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="C315" s="5">
         <v>20987351</v>
@@ -9910,11 +9914,11 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="4" t="s">
+      <c r="A316" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B316" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="C316" s="5">
         <v>19188115</v>
@@ -9933,11 +9937,11 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="4" t="s">
+      <c r="A317" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="C317" s="5">
         <v>19952791</v>
@@ -9956,11 +9960,11 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="4" t="s">
+      <c r="A318" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B318" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="B318" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="C318" s="5">
         <v>19744826</v>
@@ -9979,11 +9983,11 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="4" t="s">
+      <c r="A319" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B319" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="C319" s="5">
         <v>19992316</v>
@@ -10002,11 +10006,11 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="4" t="s">
+      <c r="A320" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B320" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="C320" s="5">
         <v>19877319</v>
@@ -10025,11 +10029,11 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B321" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>643</v>
       </c>
       <c r="C321" s="5">
         <v>19239391</v>
@@ -10048,11 +10052,11 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="4" t="s">
+      <c r="A322" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="C322" s="5">
         <v>17780204</v>
@@ -10071,11 +10075,11 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B323" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>647</v>
       </c>
       <c r="C323" s="5">
         <v>17466486</v>
@@ -10094,11 +10098,11 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B324" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="C324" s="5">
         <v>18747788</v>
@@ -10117,11 +10121,11 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="4" t="s">
+      <c r="A325" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B325" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>651</v>
       </c>
       <c r="C325" s="5">
         <v>18760823</v>
@@ -10140,11 +10144,11 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="4" t="s">
+      <c r="A326" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B326" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>653</v>
       </c>
       <c r="C326" s="5">
         <v>18342674</v>
@@ -10163,11 +10167,11 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="4" t="s">
+      <c r="A327" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B327" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C327" s="5">
         <v>18135262</v>
@@ -10186,11 +10190,11 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="4" t="s">
+      <c r="A328" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B328" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="C328" s="5">
         <v>18366614</v>
@@ -10209,11 +10213,11 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="4" t="s">
+      <c r="A329" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B329" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="C329" s="5">
         <v>18267004</v>
@@ -10232,11 +10236,11 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="4" t="s">
+      <c r="A330" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B330" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="C330" s="5">
         <v>17276500</v>
@@ -10255,11 +10259,11 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="4" t="s">
+      <c r="A331" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B331" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>663</v>
       </c>
       <c r="C331" s="5">
         <v>16507493</v>
@@ -10278,11 +10282,11 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="4" t="s">
+      <c r="A332" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B332" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="C332" s="5">
         <v>18132848</v>
@@ -10301,11 +10305,11 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="4" t="s">
+      <c r="A333" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B333" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="C333" s="5">
         <v>18094476</v>
@@ -10324,11 +10328,11 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="4" t="s">
+      <c r="A334" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B334" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="C334" s="5">
         <v>17815857</v>
@@ -10347,11 +10351,11 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="4" t="s">
+      <c r="A335" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B335" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>671</v>
       </c>
       <c r="C335" s="5">
         <v>16527902</v>
@@ -10370,11 +10374,11 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B336" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="C336" s="5">
         <v>17504542</v>
@@ -10393,11 +10397,11 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="4" t="s">
+      <c r="A337" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B337" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="C337" s="5">
         <v>15732027</v>
@@ -10416,11 +10420,11 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="4" t="s">
+      <c r="A338" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B338" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="C338" s="5">
         <v>17064294</v>
@@ -10439,11 +10443,11 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="4" t="s">
+      <c r="A339" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B339" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>679</v>
       </c>
       <c r="C339" s="5">
         <v>17368216</v>
@@ -10462,11 +10466,11 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
+      <c r="A340" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B340" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>681</v>
       </c>
       <c r="C340" s="5">
         <v>16395933</v>
@@ -10485,11 +10489,11 @@
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B341" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>683</v>
       </c>
       <c r="C341" s="5">
         <v>16584066</v>
@@ -10508,11 +10512,11 @@
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="4" t="s">
+      <c r="A342" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>684</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>685</v>
       </c>
       <c r="C342" s="5">
         <v>15795480</v>
@@ -10531,11 +10535,11 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
+      <c r="A343" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B343" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>687</v>
       </c>
       <c r="C343" s="5">
         <v>15932866</v>
@@ -10554,11 +10558,11 @@
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
+      <c r="A344" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B344" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="C344" s="5">
         <v>15773420</v>
@@ -10577,11 +10581,11 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
+      <c r="A345" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B345" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>691</v>
       </c>
       <c r="C345" s="5">
         <v>15929498</v>
@@ -10600,11 +10604,11 @@
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
+      <c r="A346" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B346" s="4" t="s">
         <v>692</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="C346" s="5">
         <v>13835912</v>
@@ -10623,11 +10627,11 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="4" t="s">
+      <c r="A347" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B347" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>695</v>
       </c>
       <c r="C347" s="5">
         <v>13699686</v>
@@ -10646,11 +10650,11 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="4" t="s">
+      <c r="A348" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B348" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="C348" s="5">
         <v>13210455</v>
@@ -10669,11 +10673,11 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="7" t="s">
+      <c r="A349" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B349" s="7" t="s">
         <v>698</v>
-      </c>
-      <c r="B349" s="8" t="s">
-        <v>699</v>
       </c>
       <c r="C349" s="8">
         <v>11542867</v>
